--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C9B6DF-B1A0-4FC1-8D05-3B78416CC6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154AB042-FA57-4C95-80BB-38BD7B39A97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -90,10 +90,10 @@
     <t>виконано</t>
   </si>
   <si>
-    <t>тимчасово пройобано</t>
-  </si>
-  <si>
     <t>кінець етапу</t>
+  </si>
+  <si>
+    <t>не виконано</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,18 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -302,20 +290,18 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -758,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +759,7 @@
     <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
@@ -804,85 +790,80 @@
         <f t="shared" ref="E3:E12" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>43799.12</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="23">
         <v>43799.12</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="G5" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>43799.12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="G6" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="31">
         <v>43800.11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="32">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
@@ -896,9 +877,8 @@
         <f t="shared" si="0"/>
         <v>43802.12</v>
       </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
@@ -912,9 +892,8 @@
         <f t="shared" si="0"/>
         <v>43808.12</v>
       </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -928,9 +907,8 @@
         <f t="shared" si="0"/>
         <v>43803</v>
       </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -944,9 +922,8 @@
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
@@ -960,9 +937,8 @@
         <f t="shared" si="0"/>
         <v>43806</v>
       </c>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
@@ -976,11 +952,8 @@
         <f t="shared" ref="E13:E17" si="1">SUM(C13:D13)</f>
         <v>43808</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -994,11 +967,8 @@
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1012,12 +982,8 @@
         <f t="shared" si="1"/>
         <v>43813</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
@@ -1025,12 +991,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
       <c r="D17" s="7"/>
@@ -1038,11 +1000,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
       <c r="D18" s="7"/>
@@ -1050,7 +1009,6 @@
         <f>SUM(C18:D18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154AB042-FA57-4C95-80BB-38BD7B39A97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C33928-B7A6-4DE9-8204-B3ADC8A1BE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -66,15 +66,6 @@
     <t xml:space="preserve">Другий етап розробки </t>
   </si>
   <si>
-    <t>Вибір стратегії розробки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формування вимог </t>
-  </si>
-  <si>
-    <t>Формування моделі вимог</t>
-  </si>
-  <si>
     <t>Вибір архітектури</t>
   </si>
   <si>
@@ -94,6 +85,9 @@
   </si>
   <si>
     <t>не виконано</t>
+  </si>
+  <si>
+    <t>Формування функ. вимог</t>
   </si>
 </sst>
 </file>
@@ -462,8 +456,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="B2:E18" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:E17" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -744,15 +738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
@@ -773,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -787,11 +781,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" ref="E3:E12" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -809,7 +803,7 @@
         <v>43800.12</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -827,7 +821,7 @@
         <v>43800.12</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -845,7 +839,7 @@
         <v>43801.120000000003</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -895,99 +889,87 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
         <v>43802</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>43803</v>
+        <v>43804</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>43802</v>
+        <v>43805</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>43804</v>
+        <f t="shared" ref="E11:E16" si="1">SUM(C11:D11)</f>
+        <v>43808</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9">
-        <v>43803</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>43806</v>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="12">
+        <f>SUM(C12:D12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43805</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" ref="E13:E17" si="1">SUM(C13:D13)</f>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19">
         <v>43808</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19">
-        <v>43808</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="D13" s="20">
         <v>0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E13" s="21">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="16">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16">
         <v>43808</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D14" s="17">
         <v>5</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E14" s="18">
         <f t="shared" si="1"/>
         <v>43813</v>
       </c>
     </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="12">
+      <c r="B16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -997,16 +979,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="7"/>
       <c r="E17" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="13">
-        <f>SUM(C18:D18)</f>
+        <f>SUM(C17:D17)</f>
         <v>0</v>
       </c>
     </row>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C33928-B7A6-4DE9-8204-B3ADC8A1BE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA280C28-F59D-4C9C-B6C9-671DE435F4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Формування функ. вимог</t>
+  </si>
+  <si>
+    <t>Модель функ. вимог</t>
+  </si>
+  <si>
+    <t>Розробка архітектурної моделі</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +143,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -261,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -292,10 +304,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="B2:E17" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:E18" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E11" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
       <c r="G3" s="27" t="s">
@@ -843,16 +853,16 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="23">
         <v>43800.11</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="24">
         <v>2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
@@ -888,8 +898,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>18</v>
+      <c r="B10" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>43802</v>
@@ -897,79 +907,91 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="31">
+        <f>SUM(C10:D10)</f>
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="9">
         <v>43805</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="12">
-        <f t="shared" ref="E11:E16" si="1">SUM(C11:D11)</f>
+      <c r="E12" s="12">
+        <f t="shared" ref="E12:E17" si="1">SUM(C12:D12)</f>
         <v>43808</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="12">
-        <f>SUM(C12:D12)</f>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12">
+        <f>SUM(C13:D13)</f>
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43808</v>
+      </c>
+      <c r="D14" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="19">
-        <v>43808</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="E14" s="21">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C15" s="16">
         <v>43808</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <v>5</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="18">
         <f t="shared" si="1"/>
         <v>43813</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="13">
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -979,7 +1001,16 @@
       <c r="C17" s="10"/>
       <c r="D17" s="7"/>
       <c r="E17" s="13">
-        <f>SUM(C17:D17)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="13">
+        <f>SUM(C18:D18)</f>
         <v>0</v>
       </c>
     </row>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA280C28-F59D-4C9C-B6C9-671DE435F4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A271D15-05EC-441D-A04B-D65310F4FCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Етап проекту</t>
   </si>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A271D15-05EC-441D-A04B-D65310F4FCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2F1B4C-242D-444F-8AF9-E93B0D1301FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Формування функ. вимог</t>
-  </si>
-  <si>
-    <t>Модель функ. вимог</t>
   </si>
   <si>
     <t>Розробка архітектурної моделі</t>
@@ -112,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +140,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -273,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -304,8 +295,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="B2:E18" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:E22" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -748,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" ref="E3:E11" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
       <c r="G3" s="27" t="s">
@@ -899,99 +892,93 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9">
+        <v>18</v>
+      </c>
+      <c r="C10" s="31">
         <v>43802</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="32">
         <v>2</v>
       </c>
-      <c r="E10" s="31">
-        <f>SUM(C10:D10)</f>
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9">
-        <v>43802</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
     </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23">
+        <v>43805</v>
+      </c>
+      <c r="D11" s="24">
+        <v>3</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" ref="E11:E16" si="1">SUM(C11:D11)</f>
+        <v>43808</v>
+      </c>
+    </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="31">
         <v>43805</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="32">
         <v>3</v>
       </c>
-      <c r="E12" s="12">
-        <f t="shared" ref="E12:E17" si="1">SUM(C12:D12)</f>
+      <c r="E12" s="33">
+        <f>SUM(C12:D12)</f>
         <v>43808</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43805</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="12">
-        <f>SUM(C13:D13)</f>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19">
         <v>43808</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19">
-        <v>43808</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="D13" s="20">
         <v>0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E13" s="21">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C14" s="16">
         <v>43808</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D14" s="17">
         <v>5</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E14" s="18">
         <f t="shared" si="1"/>
         <v>43813</v>
       </c>
     </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="12">
+      <c r="B16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1001,16 +988,52 @@
       <c r="C17" s="10"/>
       <c r="D17" s="7"/>
       <c r="E17" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:D17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="13">
-        <f>SUM(C18:D18)</f>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12">
+        <f t="shared" ref="E18:E22" si="2">SUM(C18:D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2F1B4C-242D-444F-8AF9-E93B0D1301FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14D653-FD93-4EB1-A135-6047CFB13F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="27">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>Розробка архітектурної моделі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двовимірна структура робіт </t>
+  </si>
+  <si>
+    <t>Робочі пакети</t>
+  </si>
+  <si>
+    <t>Часовий графік виконання</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оцінка витрат </t>
+  </si>
+  <si>
+    <t>CASE-засоби</t>
+  </si>
+  <si>
+    <t>Резерв</t>
+  </si>
+  <si>
+    <t>Підсумки розробки проекту</t>
   </si>
 </sst>
 </file>
@@ -100,10 +121,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,18 +293,14 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -299,6 +322,10 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -741,32 +768,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
@@ -774,268 +801,322 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>43799.12</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="19">
         <v>43799.12</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>43799.12</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <v>43799.12</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>43800.11</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>43802.12</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>43802.12</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>43802.12</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>6</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>43808.12</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <v>43802</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="28">
         <v>2</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="19">
         <v>43805</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="25">
-        <f t="shared" ref="E11:E16" si="1">SUM(C11:D11)</f>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11:E17" si="1">SUM(C11:D11)</f>
         <v>43808</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="27">
         <v>43805</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>3</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="29">
         <f>SUM(C12:D12)</f>
         <v>43808</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>43808</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>43808</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>5</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <f t="shared" si="1"/>
         <v>43813</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="12">
+      <c r="B15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="30">
+        <v>43808</v>
+      </c>
+      <c r="D15" s="28">
+        <v>3</v>
+      </c>
+      <c r="E15" s="29">
         <f t="shared" si="1"/>
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="30">
+        <v>43808</v>
+      </c>
+      <c r="D16" s="28">
+        <v>3</v>
+      </c>
+      <c r="E16" s="29">
+        <f>SUM(C16:D16)</f>
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="30">
+        <v>43809</v>
+      </c>
+      <c r="D17" s="32">
+        <v>3</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="1"/>
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="30">
+        <v>43809</v>
+      </c>
+      <c r="D18" s="32">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33">
+        <f>SUM(C18:D18)</f>
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="30">
+        <v>43809</v>
+      </c>
+      <c r="D19" s="28">
+        <v>4</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" ref="E19:E23" si="2">SUM(C19:D19)</f>
+        <v>43813</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D20" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="13">
-        <f t="shared" si="1"/>
+      <c r="E20" s="17">
+        <f t="shared" si="2"/>
+        <v>43813</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="19">
+        <v>43813</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="2"/>
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43815</v>
+      </c>
+      <c r="D22" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="13">
-        <f>SUM(C17:D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="12">
-        <f t="shared" ref="E18:E22" si="2">SUM(C18:D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="12">
+      <c r="E22" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14D653-FD93-4EB1-A135-6047CFB13F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B50CD0E-ED7A-4236-BBD6-43FE9C08F003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -771,7 +771,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B50CD0E-ED7A-4236-BBD6-43FE9C08F003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C89DB-392E-41F6-A5F3-06DA2F680A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,16 +918,16 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="19">
         <v>43802</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="29">
-        <f t="shared" ref="E19:E23" si="2">SUM(C19:D19)</f>
+        <f t="shared" ref="E19:E22" si="2">SUM(C19:D19)</f>
         <v>43813</v>
       </c>
     </row>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C89DB-392E-41F6-A5F3-06DA2F680A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B4AC2-4332-4355-BC0E-5C153D6A61EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B4AC2-4332-4355-BC0E-5C153D6A61EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71687B9-D606-47C2-AD8D-D2F448E0A96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,13 +157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,22 +316,22 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -771,7 +777,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,90 +820,90 @@
         <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="22">
         <v>43799.12</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="24">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="22">
         <v>43799.12</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="24">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="22">
         <v>43799.12</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="23">
         <v>2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="24">
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="22">
         <v>43800.11</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="27">
         <v>43802.12</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="28">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>43802.12</v>
       </c>
@@ -918,61 +924,61 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="22">
         <v>43802</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="23">
         <v>2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="22">
         <v>43805</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="23">
         <v>3</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="24">
         <f t="shared" ref="E11:E17" si="1">SUM(C11:D11)</f>
         <v>43808</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="15">
         <v>43805</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="17">
         <f>SUM(C12:D12)</f>
         <v>43808</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="27">
         <v>43808</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="28">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="29">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
@@ -993,31 +999,31 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="30">
         <v>43808</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="16">
         <v>3</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="17">
         <f t="shared" si="1"/>
         <v>43811</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="30">
         <v>43808</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="16">
         <v>3</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="17">
         <f>SUM(C16:D16)</f>
         <v>43811</v>
       </c>
@@ -1053,61 +1059,61 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="30">
         <v>43809</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="16">
         <v>4</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="17">
         <f t="shared" ref="E19:E22" si="2">SUM(C19:D19)</f>
         <v>43813</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="27">
         <v>43813</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="28">
         <v>0</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="29">
         <f t="shared" si="2"/>
         <v>43813</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="22">
         <v>43813</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="23">
         <v>2</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="24">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="27">
         <v>43815</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="28">
         <v>0</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="29">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71687B9-D606-47C2-AD8D-D2F448E0A96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7268F9-48B4-4BA7-80B0-0F1F854B946F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,21 +311,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -777,7 +771,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,34 +819,34 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>43799.12</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>43799.12</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
@@ -861,49 +855,49 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>43799.12</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>2</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>43800.11</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>2</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>43802.12</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>0</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>43802.12</v>
       </c>
@@ -924,31 +918,31 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>43802</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>43805</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>3</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f t="shared" ref="E11:E17" si="1">SUM(C11:D11)</f>
         <v>43808</v>
       </c>
@@ -969,16 +963,16 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>43808</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>0</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
@@ -1002,7 +996,7 @@
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <v>43808</v>
       </c>
       <c r="D15" s="16">
@@ -1017,7 +1011,7 @@
       <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>43808</v>
       </c>
       <c r="D16" s="16">
@@ -1029,31 +1023,31 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>43809</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>3</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <f t="shared" si="1"/>
         <v>43812</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>43809</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <v>3</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f>SUM(C18:D18)</f>
         <v>43812</v>
       </c>
@@ -1062,7 +1056,7 @@
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>43809</v>
       </c>
       <c r="D19" s="16">
@@ -1074,46 +1068,46 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>43813</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>0</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <f t="shared" si="2"/>
         <v>43813</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>43813</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>2</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>43815</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>0</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godun\Documents\GitHub\elektronna_kafedra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7268F9-48B4-4BA7-80B0-0F1F854B946F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF097858-C3C4-4573-AFB8-F2AE59B4B137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Етап проекту</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Підсумки розробки проекту</t>
+  </si>
+  <si>
+    <t>ppootis</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -768,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +786,7 @@
     <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -818,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
@@ -836,7 +839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
@@ -854,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
@@ -872,7 +875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
@@ -887,7 +890,7 @@
         <v>43802.11</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>9</v>
       </c>
@@ -902,7 +905,7 @@
         <v>43802.12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
@@ -917,7 +920,7 @@
         <v>43808.12</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
@@ -932,7 +935,7 @@
         <v>43804</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
@@ -946,8 +949,11 @@
         <f t="shared" ref="E11:E17" si="1">SUM(C11:D11)</f>
         <v>43808</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -962,7 +968,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
@@ -977,7 +983,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
@@ -992,7 +998,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>23</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7268F9-48B4-4BA7-80B0-0F1F854B946F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7464DAD7-EC98-47A0-982E-8F1BADD67392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -291,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -326,6 +332,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -771,7 +781,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,16 +1048,16 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="35">
         <v>43809</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="36">
         <v>3</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="37">
         <f>SUM(C18:D18)</f>
         <v>43812</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godun\Documents\GitHub\elektronna_kafedra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF097858-C3C4-4573-AFB8-F2AE59B4B137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B03129-BFBE-4B5A-8920-18EB2F849C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -329,6 +329,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,7 +778,7 @@
   <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,16 +1048,16 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="35">
         <v>43809</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="36">
         <v>3</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="37">
         <f>SUM(C18:D18)</f>
         <v>43812</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7464DAD7-EC98-47A0-982E-8F1BADD67392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4517C12-208B-40A6-83A0-C62E5F49BA3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +135,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -297,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -336,6 +351,11 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -781,7 +801,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +826,7 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1093,16 +1113,16 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="39">
         <v>43813</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="40">
         <v>2</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="41">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godun\Documents\GitHub\elektronna_kafedra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B03129-BFBE-4B5A-8920-18EB2F849C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9480C6BC-7F98-40A9-81C5-70FC05EEAD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -778,7 +778,7 @@
   <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,16 +1018,16 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="35">
         <v>43808</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="22">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="23">
         <f>SUM(C16:D16)</f>
         <v>43811</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9480C6BC-7F98-40A9-81C5-70FC05EEAD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4886614-45D9-4829-97E6-E6A86C800962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+      <selection activeCell="E20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4886614-45D9-4829-97E6-E6A86C800962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28DB2E-DD22-4F93-83E5-1D11EF2EFD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -310,7 +310,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -777,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E20" sqref="C20:E20"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,90 +820,90 @@
         <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>43799.12</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>43799.12</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>43799.12</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>43800.11</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>2</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>43802.12</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>43802.12</v>
       </c>
@@ -925,31 +924,31 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>43802</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>43805</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>3</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <f t="shared" ref="E11:E17" si="1">SUM(C11:D11)</f>
         <v>43808</v>
       </c>
@@ -958,31 +957,31 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <v>43805</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="21">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="22">
         <f>SUM(C12:D12)</f>
         <v>43808</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>43808</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>0</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
@@ -1003,61 +1002,61 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="34">
         <v>43808</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="21">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="22">
         <f t="shared" si="1"/>
         <v>43811</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>43808</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>3</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <f>SUM(C16:D16)</f>
         <v>43811</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>43809</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>3</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <f t="shared" si="1"/>
         <v>43812</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>43809</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <v>3</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <f>SUM(C18:D18)</f>
         <v>43812</v>
       </c>
@@ -1066,58 +1065,58 @@
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>43809</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <f t="shared" ref="E19:E22" si="2">SUM(C19:D19)</f>
         <v>43813</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>43813</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <f t="shared" si="2"/>
         <v>43813</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>43813</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>2</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>43815</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>0</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28DB2E-DD22-4F93-83E5-1D11EF2EFD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EBC0C-3097-4714-A9DB-2E2D5175D3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -305,13 +305,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -431,23 +428,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -492,7 +489,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="B2:E22" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -777,7 +774,7 @@
   <dimension ref="B2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,148 +804,148 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>43799.12</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>3</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <f t="shared" ref="E3:E10" si="0">SUM(C3:D3)</f>
         <v>43802.12</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>43799.12</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>43799.12</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>43800.12</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>43799.12</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>43800.11</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>43802.11</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>43802.12</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <v>0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>43802.12</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>43802.12</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>6</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>43808.12</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>43802</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <v>2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>43804</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>43805</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>3</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <f t="shared" ref="E11:E17" si="1">SUM(C11:D11)</f>
         <v>43808</v>
       </c>
@@ -957,166 +954,166 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>43805</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <f>SUM(C12:D12)</f>
         <v>43808</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>43808</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="24">
         <f t="shared" si="1"/>
         <v>43808</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>43808</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>5</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <f t="shared" si="1"/>
         <v>43813</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="31">
         <v>43808</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>3</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <f t="shared" si="1"/>
         <v>43811</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="31">
         <v>43808</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <v>3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <f>SUM(C16:D16)</f>
         <v>43811</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="25">
         <v>43809</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="27">
         <v>3</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="28">
         <f t="shared" si="1"/>
         <v>43812</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="31">
         <v>43809</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="32">
         <v>3</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="33">
         <f>SUM(C18:D18)</f>
         <v>43812</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="31">
         <v>43809</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="18">
         <v>4</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="19">
         <f t="shared" ref="E19:E22" si="2">SUM(C19:D19)</f>
         <v>43813</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>43813</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="23">
         <v>0</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <f t="shared" si="2"/>
         <v>43813</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="17">
         <v>43813</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="18">
         <v>2</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <v>43815</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="23">
         <v>0</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="24">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godun\Documents\GitHub\elektronna_kafedra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EBC0C-3097-4714-A9DB-2E2D5175D3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84199690-CFCE-4824-A7CF-EA6F9DF70C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1785" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -320,10 +320,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -331,7 +327,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -428,23 +424,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -489,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B2:E22" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -773,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +867,7 @@
         <f t="shared" si="0"/>
         <v>43801.120000000003</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1002,7 +998,7 @@
       <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="27">
         <v>43808</v>
       </c>
       <c r="D15" s="18">
@@ -1017,7 +1013,7 @@
       <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="27">
         <v>43808</v>
       </c>
       <c r="D16" s="18">
@@ -1032,28 +1028,28 @@
       <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="27">
         <v>43809</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="28">
         <v>3</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <f t="shared" si="1"/>
         <v>43812</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="27">
         <v>43809</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="28">
         <v>3</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <f>SUM(C18:D18)</f>
         <v>43812</v>
       </c>
@@ -1062,7 +1058,7 @@
       <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="27">
         <v>43809</v>
       </c>
       <c r="D19" s="18">

--- a/Схема роботи.xlsx
+++ b/Схема роботи.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godun\Documents\GitHub\elektronna_kafedra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\GITRepos\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84199690-CFCE-4824-A7CF-EA6F9DF70C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A82A8-CAF3-4289-A0FB-2E9C256EFBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1785" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="336" yWindow="120" windowWidth="10044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -485,8 +485,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="B2:E22" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{689D28D2-1E97-4AFF-B557-E585F24CE0DD}" name="Таблица2" displayName="Таблица2" ref="B2:E21" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:E21" xr:uid="{21EFB194-54D4-4AD7-801D-D6A9D86702C7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
